--- a/results/table_CSE.xlsx
+++ b/results/table_CSE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.27 ± 0.09</t>
+          <t>0.25 ± 0.11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01 ± 0.10</t>
+          <t>1.03 ± 0.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>59.26 ± 7.41</t>
+          <t>61.18 ± 5.13</t>
         </is>
       </c>
     </row>
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.14 ± 0.13</t>
+          <t>0.24 ± 0.08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.09 ± 0.08</t>
+          <t>1.04 ± 0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64.22 ± 5.95</t>
+          <t>61.65 ± 6.37</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.12</t>
+          <t>-0.01 ± 0.09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.19 ± 0.06</t>
+          <t>1.20 ± 0.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.13 ± 5.71</t>
+          <t>71.30 ± 6.76</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.08 ± 0.15</t>
+          <t>0.29 ± 0.07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.22 ± 0.13</t>
+          <t>1.00 ± 0.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.18 ± 9.45</t>
+          <t>59.51 ± 5.05</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.29 ± 0.09</t>
+          <t>0.24 ± 0.09</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.00 ± 0.09</t>
+          <t>1.04 ± 0.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>58.67 ± 7.19</t>
+          <t>61.66 ± 4.78</t>
         </is>
       </c>
     </row>
@@ -603,22 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.05 ± 0.09</t>
+          <t>-0.02 ± 0.08</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.21 ± 0.09</t>
+          <t>1.20 ± 0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71.17 ± 7.37</t>
+          <t>71.54 ± 6.91</t>
         </is>
       </c>
     </row>
@@ -630,184 +630,184 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.18 ± 0.13</t>
+          <t>0.22 ± 0.11</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.06 ± 0.09</t>
+          <t>1.05 ± 0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>62.46 ± 6.55</t>
+          <t>62.29 ± 4.67</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.23 ± 0.11</t>
+          <t>-0.04 ± 0.04</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.03 ± 0.10</t>
+          <t>1.22 ± 0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>60.66 ± 7.19</t>
+          <t>72.35 ± 7.31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.22 ± 0.06</t>
+          <t>0.29 ± 0.04</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.04 ± 0.09</t>
+          <t>1.00 ± 0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>61.37 ± 6.88</t>
+          <t>59.60 ± 5.36</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.06 ± 0.08</t>
+          <t>-0.01 ± 0.09</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.14 ± 0.08</t>
+          <t>1.20 ± 0.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>67.41 ± 6.68</t>
+          <t>71.16 ± 6.43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.05</t>
+          <t>0.25 ± 0.06</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.20 ± 0.09</t>
+          <t>1.03 ± 0.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>70.67 ± 7.32</t>
+          <t>61.40 ± 6.42</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.28 ± 0.08</t>
+          <t>0.23 ± 0.07</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.00 ± 0.10</t>
+          <t>1.04 ± 0.08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>59.07 ± 7.37</t>
+          <t>61.96 ± 5.67</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.02 ± 0.13</t>
+          <t>0.16 ± 0.08</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.19 ± 0.08</t>
+          <t>1.09 ± 0.08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>69.87 ± 6.48</t>
+          <t>64.63 ± 5.90</t>
         </is>
       </c>
     </row>
@@ -819,400 +819,1048 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.18 ± 0.12</t>
+          <t>0.24 ± 0.07</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.06 ± 0.07</t>
+          <t>1.03 ± 0.08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>62.67 ± 5.87</t>
+          <t>61.53 ± 5.71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.42 ± 0.09</t>
+          <t>0.26 ± 0.06</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.90 ± 0.11</t>
+          <t>1.03 ± 0.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>52.88 ± 8.07</t>
+          <t>61.08 ± 5.40</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.31 ± 0.10</t>
+          <t>0.04 ± 0.10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.97 ± 0.10</t>
+          <t>1.16 ± 0.08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>57.33 ± 6.90</t>
+          <t>69.27 ± 5.29</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.02 ± 0.12</t>
+          <t>0.30 ± 0.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.19 ± 0.07</t>
+          <t>1.00 ± 0.07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>69.96 ± 5.76</t>
+          <t>59.31 ± 5.23</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.04 ± 0.05</t>
+          <t>0.17 ± 0.14</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.20 ± 0.09</t>
+          <t>1.08 ± 0.08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70.70 ± 7.35</t>
+          <t>64.31 ± 5.57</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.42 ± 0.08</t>
+          <t>0.05 ± 0.11</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.90 ± 0.10</t>
+          <t>1.16 ± 0.07</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>52.93 ± 7.47</t>
+          <t>68.92 ± 4.45</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.02 ± 0.13</t>
+          <t>0.27 ± 0.07</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.16 ± 0.08</t>
+          <t>1.01 ± 0.06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>68.59 ± 6.30</t>
+          <t>60.40 ± 4.83</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.32 ± 0.11</t>
+          <t>-0.39 ± 0.45</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.97 ± 0.10</t>
+          <t>1.39 ± 0.22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>56.98 ± 7.16</t>
+          <t>82.69 ± 13.88</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.40 ± 0.08</t>
+          <t>0.29 ± 0.04</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.91 ± 0.09</t>
+          <t>1.00 ± 0.07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>53.60 ± 6.75</t>
+          <t>59.70 ± 5.07</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.31 ± 0.13</t>
+          <t>0.01 ± 0.11</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.98 ± 0.11</t>
+          <t>1.18 ± 0.07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>57.48 ± 7.45</t>
+          <t>70.26 ± 4.90</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.06 ± 0.08</t>
+          <t>0.26 ± 0.05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.14 ± 0.08</t>
+          <t>1.02 ± 0.08</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>67.34 ± 6.67</t>
+          <t>60.87 ± 6.13</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.04</t>
+          <t>0.25 ± 0.10</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.20 ± 0.09</t>
+          <t>1.03 ± 0.08</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>70.59 ± 7.57</t>
+          <t>61.36 ± 5.81</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.41 ± 0.07</t>
+          <t>0.15 ± 0.11</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.90 ± 0.10</t>
+          <t>1.09 ± 0.08</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>53.33 ± 7.41</t>
+          <t>64.97 ± 6.02</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.06 ± 0.07</t>
+          <t>0.41 ± 0.17</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.14 ± 0.08</t>
+          <t>0.90 ± 0.12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>67.46 ± 6.96</t>
+          <t>53.72 ± 6.91</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BaggedDT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.38 ± 0.19</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>55.33 ± 6.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BayesianNN</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.35 ± 0.20</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.95 ± 0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>56.42 ± 6.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.42 ± 0.12</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.90 ± 0.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>53.53 ± 5.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GBDT</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.41 ± 0.15</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>53.79 ± 4.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.01 ± 0.11</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.18 ± 0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.26 ± 6.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.39 ± 0.18</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.92 ± 0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>54.58 ± 4.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-0.03 ± 0.01</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.21 ± 0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.90 ± 7.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.42 ± 0.13</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.90 ± 0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>53.68 ± 5.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.13 ± 0.13</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.11 ± 0.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>65.82 ± 7.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>StackEns</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.38 ± 0.13</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.94 ± 0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>55.64 ± 6.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.36 ± 0.18</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.94 ± 0.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>55.71 ± 4.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>▸ Average</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.30 ± 0.14</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.98 ± 0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>58.36 ± 5.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Conf4</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AdaBoost</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.41 ± 0.16</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>53.99 ± 5.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BaggedDT</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.38 ± 0.18</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>55.20 ± 6.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BayesianNN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.35 ± 0.18</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.95 ± 0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>56.32 ± 5.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.44 ± 0.12</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.88 ± 0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>52.44 ± 4.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GBDT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.41 ± 0.16</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>53.87 ± 3.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.06 ± 0.08</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.15 ± 0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>68.53 ± 5.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.41 ± 0.17</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>53.81 ± 4.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-0.03 ± 0.07</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.21 ± 0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>72.00 ± 7.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.42 ± 0.12</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>53.84 ± 5.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.03 ± 0.11</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.17 ± 0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.63 ± 4.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>StackEns</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.38 ± 0.15</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>55.53 ± 6.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.31 ± 0.10</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.36 ± 0.19</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.94 ± 0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>55.88 ± 4.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>▸ Average</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.30 ± 0.14</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>0.98 ± 0.09</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>57.56 ± 6.72</t>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>58.42 ± 5.46</t>
         </is>
       </c>
     </row>

--- a/results/table_CSE.xlsx
+++ b/results/table_CSE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>RMSE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>%RMSE</t>
         </is>
@@ -478,10 +483,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.59 ± 0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>1.03 ± 0.07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>61.18 ± 5.13</t>
         </is>
@@ -505,10 +515,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.68 ± 0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>1.04 ± 0.09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>61.65 ± 6.37</t>
         </is>
@@ -532,10 +547,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.33 ± 1.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>1.20 ± 0.10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>71.30 ± 6.76</t>
         </is>
@@ -559,10 +579,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.68 ± 0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>1.00 ± 0.07</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>59.51 ± 5.05</t>
         </is>
@@ -586,10 +611,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.69 ± 0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>1.04 ± 0.07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>61.66 ± 4.78</t>
         </is>
@@ -613,10 +643,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.20 ± 1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>1.20 ± 0.10</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>71.54 ± 6.91</t>
         </is>
@@ -640,10 +675,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.64 ± 0.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>1.05 ± 0.06</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>62.29 ± 4.67</t>
         </is>
@@ -667,10 +707,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2.36 ± 1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>1.22 ± 0.10</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>72.35 ± 7.31</t>
         </is>
@@ -694,10 +739,15 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>1.59 ± 0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>1.00 ± 0.07</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>59.60 ± 5.36</t>
         </is>
@@ -721,10 +771,15 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.99 ± 1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>1.20 ± 0.09</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>71.16 ± 6.43</t>
         </is>
@@ -748,10 +803,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1.74 ± 0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>1.03 ± 0.09</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>61.40 ± 6.42</t>
         </is>
@@ -775,10 +835,15 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>1.65 ± 0.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>1.04 ± 0.08</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>61.96 ± 5.67</t>
         </is>
@@ -802,10 +867,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>1.84 ± 0.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>1.09 ± 0.08</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>64.63 ± 5.90</t>
         </is>
@@ -814,27 +884,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.24 ± 0.07</t>
+          <t>0.29 ± 0.07</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.03 ± 0.08</t>
+          <t>1.61 ± 0.69</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>61.53 ± 5.71</t>
+          <t>1.00 ± 0.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>59.80 ± 4.74</t>
         </is>
       </c>
     </row>
@@ -846,22 +921,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.26 ± 0.06</t>
+          <t>0.24 ± 0.07</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.03 ± 0.07</t>
+          <t>1.59 ± 0.68</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>61.08 ± 5.40</t>
+          <t>1.03 ± 0.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>61.53 ± 5.71</t>
         </is>
       </c>
     </row>
@@ -873,22 +953,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.04 ± 0.10</t>
+          <t>0.26 ± 0.06</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.16 ± 0.08</t>
+          <t>1.69 ± 0.76</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>69.27 ± 5.29</t>
+          <t>1.03 ± 0.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>61.08 ± 5.40</t>
         </is>
       </c>
     </row>
@@ -900,22 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.30 ± 0.05</t>
+          <t>0.04 ± 0.10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.00 ± 0.07</t>
+          <t>2.11 ± 1.08</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>59.31 ± 5.23</t>
+          <t>1.16 ± 0.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>69.27 ± 5.29</t>
         </is>
       </c>
     </row>
@@ -927,22 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.17 ± 0.14</t>
+          <t>0.30 ± 0.05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.08 ± 0.08</t>
+          <t>1.77 ± 0.86</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>64.31 ± 5.57</t>
+          <t>1.00 ± 0.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>59.31 ± 5.23</t>
         </is>
       </c>
     </row>
@@ -954,22 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.05 ± 0.11</t>
+          <t>0.17 ± 0.14</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.16 ± 0.07</t>
+          <t>1.81 ± 0.90</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>68.92 ± 4.45</t>
+          <t>1.08 ± 0.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>64.31 ± 5.57</t>
         </is>
       </c>
     </row>
@@ -981,22 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.27 ± 0.07</t>
+          <t>0.05 ± 0.11</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.01 ± 0.06</t>
+          <t>2.08 ± 1.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>60.40 ± 4.83</t>
+          <t>1.16 ± 0.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>68.92 ± 4.45</t>
         </is>
       </c>
     </row>
@@ -1008,22 +1113,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-0.39 ± 0.45</t>
+          <t>0.27 ± 0.07</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.39 ± 0.22</t>
+          <t>1.65 ± 0.71</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.69 ± 13.88</t>
+          <t>1.01 ± 0.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>60.40 ± 4.83</t>
         </is>
       </c>
     </row>
@@ -1035,22 +1145,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.29 ± 0.04</t>
+          <t>-0.39 ± 0.45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.00 ± 0.07</t>
+          <t>1.89 ± 0.96</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>59.70 ± 5.07</t>
+          <t>1.39 ± 0.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>82.69 ± 13.88</t>
         </is>
       </c>
     </row>
@@ -1062,22 +1177,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.01 ± 0.11</t>
+          <t>0.29 ± 0.04</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.18 ± 0.07</t>
+          <t>1.62 ± 0.70</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>70.26 ± 4.90</t>
+          <t>1.00 ± 0.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>59.70 ± 5.07</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1209,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.26 ± 0.05</t>
+          <t>0.01 ± 0.11</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.02 ± 0.08</t>
+          <t>1.89 ± 1.07</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>60.87 ± 6.13</t>
+          <t>1.18 ± 0.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>70.26 ± 4.90</t>
         </is>
       </c>
     </row>
@@ -1116,22 +1241,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.25 ± 0.10</t>
+          <t>0.26 ± 0.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.03 ± 0.08</t>
+          <t>1.74 ± 0.78</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>61.36 ± 5.81</t>
+          <t>1.02 ± 0.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>60.87 ± 6.13</t>
         </is>
       </c>
     </row>
@@ -1143,76 +1273,91 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.15 ± 0.11</t>
+          <t>0.25 ± 0.10</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.09 ± 0.08</t>
+          <t>1.74 ± 0.84</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>64.97 ± 6.02</t>
+          <t>1.03 ± 0.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>61.36 ± 5.81</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.41 ± 0.17</t>
+          <t>0.15 ± 0.11</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.90 ± 0.12</t>
+          <t>1.80 ± 0.88</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>53.72 ± 6.91</t>
+          <t>1.09 ± 0.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>64.97 ± 6.02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.38 ± 0.19</t>
+          <t>0.29 ± 0.05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.93 ± 0.12</t>
+          <t>1.65 ± 0.73</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>55.33 ± 6.86</t>
+          <t>1.00 ± 0.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>59.60 ± 5.21</t>
         </is>
       </c>
     </row>
@@ -1224,22 +1369,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.35 ± 0.20</t>
+          <t>0.41 ± 0.17</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.95 ± 0.11</t>
+          <t>1.24 ± 0.43</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>56.42 ± 6.05</t>
+          <t>0.90 ± 0.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>53.72 ± 6.91</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1401,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.42 ± 0.12</t>
+          <t>0.38 ± 0.19</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.90 ± 0.09</t>
+          <t>1.12 ± 0.33</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>53.53 ± 5.05</t>
+          <t>0.93 ± 0.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>55.33 ± 6.86</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1433,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.41 ± 0.15</t>
+          <t>0.35 ± 0.20</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.91 ± 0.08</t>
+          <t>1.15 ± 0.40</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>53.79 ± 4.12</t>
+          <t>0.95 ± 0.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>56.42 ± 6.05</t>
         </is>
       </c>
     </row>
@@ -1305,22 +1465,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.01 ± 0.11</t>
+          <t>0.42 ± 0.12</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.18 ± 0.10</t>
+          <t>1.19 ± 0.44</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>70.26 ± 6.36</t>
+          <t>0.90 ± 0.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>53.53 ± 5.05</t>
         </is>
       </c>
     </row>
@@ -1332,22 +1497,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.39 ± 0.18</t>
+          <t>0.41 ± 0.15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.92 ± 0.09</t>
+          <t>1.14 ± 0.39</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>54.58 ± 4.81</t>
+          <t>0.91 ± 0.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>53.79 ± 4.12</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1529,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.01</t>
+          <t>0.01 ± 0.11</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.21 ± 0.10</t>
+          <t>2.18 ± 1.21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>71.90 ± 7.52</t>
+          <t>1.18 ± 0.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>70.26 ± 6.36</t>
         </is>
       </c>
     </row>
@@ -1386,22 +1561,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.42 ± 0.13</t>
+          <t>0.39 ± 0.18</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.90 ± 0.09</t>
+          <t>1.17 ± 0.43</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>53.68 ± 5.52</t>
+          <t>0.92 ± 0.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>54.58 ± 4.81</t>
         </is>
       </c>
     </row>
@@ -1413,22 +1593,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.13 ± 0.13</t>
+          <t>-0.03 ± 0.01</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.11 ± 0.11</t>
+          <t>2.25 ± 1.01</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>65.82 ± 7.22</t>
+          <t>1.21 ± 0.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>71.90 ± 7.52</t>
         </is>
       </c>
     </row>
@@ -1440,22 +1625,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.38 ± 0.13</t>
+          <t>0.42 ± 0.13</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.94 ± 0.11</t>
+          <t>1.21 ± 0.45</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>55.64 ± 6.64</t>
+          <t>0.90 ± 0.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>53.68 ± 5.52</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1657,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.36 ± 0.18</t>
+          <t>0.13 ± 0.13</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.94 ± 0.09</t>
+          <t>1.59 ± 0.99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>55.71 ± 4.80</t>
+          <t>1.11 ± 0.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>65.82 ± 7.22</t>
         </is>
       </c>
     </row>
@@ -1494,103 +1689,123 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.30 ± 0.14</t>
+          <t>0.38 ± 0.13</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.98 ± 0.10</t>
+          <t>1.19 ± 0.37</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>58.36 ± 5.99</t>
+          <t>0.94 ± 0.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>55.64 ± 6.64</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.41 ± 0.16</t>
+          <t>0.36 ± 0.18</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.91 ± 0.10</t>
+          <t>1.11 ± 0.31</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>53.99 ± 5.55</t>
+          <t>0.94 ± 0.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>55.71 ± 4.80</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.38 ± 0.18</t>
+          <t>0.30 ± 0.14</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.93 ± 0.11</t>
+          <t>1.38 ± 0.56</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>55.20 ± 6.58</t>
+          <t>0.98 ± 0.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>58.36 ± 5.99</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.35 ± 0.18</t>
+          <t>0.43 ± 0.15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.95 ± 0.10</t>
+          <t>1.19 ± 0.43</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>56.32 ± 5.19</t>
+          <t>0.89 ± 0.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>52.94 ± 5.64</t>
         </is>
       </c>
     </row>
@@ -1602,22 +1817,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.44 ± 0.12</t>
+          <t>0.41 ± 0.16</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.88 ± 0.08</t>
+          <t>1.24 ± 0.45</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>52.44 ± 4.76</t>
+          <t>0.91 ± 0.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>53.99 ± 5.55</t>
         </is>
       </c>
     </row>
@@ -1629,22 +1849,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.41 ± 0.16</t>
+          <t>0.38 ± 0.18</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.91 ± 0.08</t>
+          <t>1.17 ± 0.37</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>53.87 ± 3.92</t>
+          <t>0.93 ± 0.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>55.20 ± 6.58</t>
         </is>
       </c>
     </row>
@@ -1656,22 +1881,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.06 ± 0.08</t>
+          <t>0.35 ± 0.18</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.15 ± 0.08</t>
+          <t>1.13 ± 0.38</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>68.53 ± 5.58</t>
+          <t>0.95 ± 0.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>56.32 ± 5.19</t>
         </is>
       </c>
     </row>
@@ -1683,22 +1913,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.41 ± 0.17</t>
+          <t>0.44 ± 0.12</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.91 ± 0.09</t>
+          <t>1.20 ± 0.47</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>53.81 ± 4.46</t>
+          <t>0.88 ± 0.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>52.44 ± 4.76</t>
         </is>
       </c>
     </row>
@@ -1710,22 +1945,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.07</t>
+          <t>0.41 ± 0.16</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.21 ± 0.11</t>
+          <t>1.13 ± 0.41</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>72.00 ± 7.88</t>
+          <t>0.91 ± 0.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>53.87 ± 3.92</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1977,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.42 ± 0.12</t>
+          <t>0.06 ± 0.08</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.91 ± 0.09</t>
+          <t>2.02 ± 1.19</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>53.84 ± 5.38</t>
+          <t>1.15 ± 0.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>68.53 ± 5.58</t>
         </is>
       </c>
     </row>
@@ -1764,22 +2009,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.03 ± 0.11</t>
+          <t>0.41 ± 0.17</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.17 ± 0.07</t>
+          <t>1.13 ± 0.40</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>69.63 ± 4.86</t>
+          <t>0.91 ± 0.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>53.81 ± 4.46</t>
         </is>
       </c>
     </row>
@@ -1791,22 +2041,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.38 ± 0.15</t>
+          <t>-0.03 ± 0.07</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.93 ± 0.11</t>
+          <t>2.29 ± 1.08</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>55.53 ± 6.78</t>
+          <t>1.21 ± 0.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>72.00 ± 7.88</t>
         </is>
       </c>
     </row>
@@ -1818,22 +2073,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.36 ± 0.19</t>
+          <t>0.42 ± 0.12</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.94 ± 0.09</t>
+          <t>1.28 ± 0.49</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>55.88 ± 4.55</t>
+          <t>0.91 ± 0.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>53.84 ± 5.38</t>
         </is>
       </c>
     </row>
@@ -1845,22 +2105,155 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.03 ± 0.11</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.86 ± 1.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1.17 ± 0.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>69.63 ± 4.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>StackEns</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.38 ± 0.15</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.21 ± 0.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>55.53 ± 6.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.36 ± 0.19</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.20 ± 0.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.94 ± 0.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>55.88 ± 4.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>▸ Average</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>0.30 ± 0.14</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.41 ± 0.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>0.98 ± 0.09</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>58.42 ± 5.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>▸ Ensemble</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.44 ± 0.14</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.20 ± 0.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.89 ± 0.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>52.67 ± 5.00</t>
         </is>
       </c>
     </row>

--- a/results/table_CSE.xlsx
+++ b/results/table_CSE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R2 (val)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>MAPE (val)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RMSE (val)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>%RMSE</t>
+          <t>%RMSE (val)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>R2 (train)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>MAPE (train)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE (train)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>%RMSE (train)</t>
         </is>
       </c>
     </row>
@@ -478,22 +498,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.25 ± 0.11</t>
+          <t>0.21 ± 0.13</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.59 ± 0.64</t>
+          <t>1.59 ± 0.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.03 ± 0.07</t>
+          <t>1.04 ± 0.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>61.18 ± 5.13</t>
+          <t>62.06 ± 5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.90 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.76 ± 0.10</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.37 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>22.15 ± 1.17</t>
         </is>
       </c>
     </row>
@@ -510,22 +550,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.24 ± 0.08</t>
+          <t>0.23 ± 0.16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.68 ± 0.75</t>
+          <t>1.60 ± 0.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.04 ± 0.09</t>
+          <t>1.03 ± 0.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>61.65 ± 6.37</t>
+          <t>61.15 ± 4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.89 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.66 ± 0.07</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.40 ± 0.00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>23.51 ± 0.77</t>
         </is>
       </c>
     </row>
@@ -542,22 +602,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.01 ± 0.09</t>
+          <t>-0.06 ± 0.11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.33 ± 1.22</t>
+          <t>2.31 ± 1.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.20 ± 0.10</t>
+          <t>1.21 ± 0.11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71.30 ± 6.76</t>
+          <t>72.24 ± 8.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.07 ± 0.03</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2.25 ± 0.31</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.16 ± 0.03</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>69.07 ± 1.82</t>
         </is>
       </c>
     </row>
@@ -574,22 +654,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.29 ± 0.07</t>
+          <t>0.23 ± 0.16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.68 ± 0.77</t>
+          <t>1.64 ± 0.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.00 ± 0.07</t>
+          <t>1.02 ± 0.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>59.51 ± 5.05</t>
+          <t>61.04 ± 5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.98 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.33 ± 0.05</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.17 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>10.38 ± 0.76</t>
         </is>
       </c>
     </row>
@@ -606,22 +706,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.24 ± 0.09</t>
+          <t>0.16 ± 0.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.69 ± 0.70</t>
+          <t>1.68 ± 0.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.04 ± 0.07</t>
+          <t>1.08 ± 0.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>61.66 ± 4.78</t>
+          <t>64.14 ± 5.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.98 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.34 ± 0.03</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.19 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>11.03 ± 0.52</t>
         </is>
       </c>
     </row>
@@ -638,22 +758,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.02 ± 0.08</t>
+          <t>-0.09 ± 0.21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.20 ± 1.26</t>
+          <t>2.31 ± 1.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.20 ± 0.10</t>
+          <t>1.22 ± 0.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>71.54 ± 6.91</t>
+          <t>72.91 ± 7.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.11 ± 0.03</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2.18 ± 0.30</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.13 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>67.30 ± 1.37</t>
         </is>
       </c>
     </row>
@@ -670,22 +810,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.22 ± 0.11</t>
+          <t>0.25 ± 0.19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.64 ± 0.72</t>
+          <t>1.67 ± 0.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.05 ± 0.06</t>
+          <t>1.01 ± 0.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>62.29 ± 4.67</t>
+          <t>60.12 ± 4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.77 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.10</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.57 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>34.01 ± 1.04</t>
         </is>
       </c>
     </row>
@@ -702,22 +862,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.04 ± 0.04</t>
+          <t>-0.03 ± 0.03</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.36 ± 1.08</t>
+          <t>2.30 ± 1.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.22 ± 0.10</t>
+          <t>1.20 ± 0.14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>72.35 ± 7.31</t>
+          <t>71.67 ± 9.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-0.00 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2.45 ± 0.28</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.20 ± 0.04</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>71.59 ± 2.43</t>
         </is>
       </c>
     </row>
@@ -734,22 +914,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.29 ± 0.04</t>
+          <t>0.25 ± 0.15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.59 ± 0.67</t>
+          <t>1.64 ± 0.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.00 ± 0.07</t>
+          <t>1.01 ± 0.05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>59.60 ± 5.36</t>
+          <t>60.18 ± 4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.67 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.06 ± 0.06</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.69 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>40.84 ± 1.40</t>
         </is>
       </c>
     </row>
@@ -766,22 +966,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.01 ± 0.09</t>
+          <t>-0.02 ± 0.02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.99 ± 1.29</t>
+          <t>2.32 ± 0.96</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.20 ± 0.09</t>
+          <t>1.20 ± 0.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>71.16 ± 6.43</t>
+          <t>71.32 ± 9.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.99 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.18 ± 0.01</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.10 ± 0.00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>5.83 ± 0.16</t>
         </is>
       </c>
     </row>
@@ -798,22 +1018,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.25 ± 0.06</t>
+          <t>0.20 ± 0.10</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.74 ± 0.75</t>
+          <t>1.71 ± 0.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.03 ± 0.09</t>
+          <t>1.05 ± 0.07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61.40 ± 6.42</t>
+          <t>62.44 ± 5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.68 ± 0.05</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1.21 ± 0.16</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.67 ± 0.04</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>39.98 ± 2.17</t>
         </is>
       </c>
     </row>
@@ -830,22 +1070,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.23 ± 0.07</t>
+          <t>0.17 ± 0.21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.65 ± 0.75</t>
+          <t>1.65 ± 0.46</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.04 ± 0.08</t>
+          <t>1.06 ± 0.04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>61.96 ± 5.67</t>
+          <t>63.12 ± 3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.05 ± 0.01</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.03 ± 0.00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.84 ± 0.23</t>
         </is>
       </c>
     </row>
@@ -862,12 +1122,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.16 ± 0.08</t>
+          <t>0.12 ± 0.13</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.84 ± 0.88</t>
+          <t>1.87 ± 0.70</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -877,7 +1137,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>64.63 ± 5.90</t>
+          <t>65.20 ± 6.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.67 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1.03 ± 0.12</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.56 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>33.13 ± 1.15</t>
         </is>
       </c>
     </row>
@@ -894,22 +1174,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.29 ± 0.07</t>
+          <t>0.26 ± 0.15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.61 ± 0.69</t>
+          <t>1.62 ± 0.55</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.00 ± 0.06</t>
+          <t>1.00 ± 0.05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>59.80 ± 4.74</t>
+          <t>59.75 ± 4.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.88 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.76 ± 0.06</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.42 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>25.00 ± 0.67</t>
         </is>
       </c>
     </row>
@@ -926,22 +1226,42 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.24 ± 0.07</t>
+          <t>0.24 ± 0.17</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.59 ± 0.68</t>
+          <t>1.51 ± 0.39</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.03 ± 0.08</t>
+          <t>1.02 ± 0.05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>61.53 ± 5.71</t>
+          <t>60.46 ± 4.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.79 ± 0.09</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.36 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>21.12 ± 1.13</t>
         </is>
       </c>
     </row>
@@ -958,22 +1278,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.26 ± 0.06</t>
+          <t>0.22 ± 0.19</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.69 ± 0.76</t>
+          <t>1.58 ± 0.43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.03 ± 0.07</t>
+          <t>1.03 ± 0.06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>61.08 ± 5.40</t>
+          <t>61.09 ± 5.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.89 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.66 ± 0.09</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.40 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>23.84 ± 0.94</t>
         </is>
       </c>
     </row>
@@ -990,22 +1330,42 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.04 ± 0.10</t>
+          <t>-0.03 ± 0.20</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.11 ± 1.08</t>
+          <t>2.06 ± 0.98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.16 ± 0.08</t>
+          <t>1.19 ± 0.08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>69.27 ± 5.29</t>
+          <t>70.74 ± 5.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.15 ± 0.04</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2.06 ± 0.27</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1.11 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>66.02 ± 2.55</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1382,42 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.30 ± 0.05</t>
+          <t>0.27 ± 0.17</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.77 ± 0.86</t>
+          <t>1.78 ± 0.78</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.00 ± 0.07</t>
+          <t>1.00 ± 0.05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>59.31 ± 5.23</t>
+          <t>59.45 ± 4.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.77 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.04 ± 0.10</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.58 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>34.22 ± 0.97</t>
         </is>
       </c>
     </row>
@@ -1054,22 +1434,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.17 ± 0.14</t>
+          <t>0.24 ± 0.10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.81 ± 0.90</t>
+          <t>1.72 ± 0.57</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.08 ± 0.08</t>
+          <t>1.02 ± 0.08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>64.31 ± 5.57</t>
+          <t>61.00 ± 5.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.75 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1.15 ± 0.10</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.60 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>35.88 ± 0.89</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1486,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.05 ± 0.11</t>
+          <t>-0.05 ± 0.28</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.08 ± 1.20</t>
+          <t>2.18 ± 1.17</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.16 ± 0.07</t>
+          <t>1.19 ± 0.07</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>68.92 ± 4.45</t>
+          <t>70.84 ± 5.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.22 ± 0.04</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.98 ± 0.25</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1.06 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>63.23 ± 1.62</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1538,42 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.27 ± 0.07</t>
+          <t>0.25 ± 0.16</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.65 ± 0.71</t>
+          <t>1.69 ± 0.70</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.01 ± 0.06</t>
+          <t>1.01 ± 0.04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>60.40 ± 4.83</t>
+          <t>60.11 ± 3.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.79 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.11</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.55 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>32.99 ± 1.36</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1590,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-0.39 ± 0.45</t>
+          <t>-0.03 ± 0.03</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.89 ± 0.96</t>
+          <t>2.37 ± 0.97</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.39 ± 0.22</t>
+          <t>1.20 ± 0.14</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>82.69 ± 13.88</t>
+          <t>71.64 ± 9.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-0.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2.40 ± 0.28</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1.20 ± 0.04</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>71.48 ± 2.25</t>
         </is>
       </c>
     </row>
@@ -1182,22 +1642,42 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.29 ± 0.04</t>
+          <t>0.26 ± 0.16</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.62 ± 0.70</t>
+          <t>1.62 ± 0.40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.00 ± 0.07</t>
+          <t>1.00 ± 0.05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>59.70 ± 5.07</t>
+          <t>59.67 ± 3.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.70 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1.03 ± 0.07</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.66 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>39.12 ± 1.46</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1694,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.01 ± 0.11</t>
+          <t>-0.05 ± 0.20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.89 ± 1.07</t>
+          <t>1.90 ± 1.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.18 ± 0.07</t>
+          <t>1.20 ± 0.08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>70.26 ± 4.90</t>
+          <t>71.53 ± 6.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.39 ± 0.04</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1.36 ± 0.24</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.94 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>55.65 ± 1.25</t>
         </is>
       </c>
     </row>
@@ -1246,22 +1746,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.26 ± 0.05</t>
+          <t>0.22 ± 0.08</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.74 ± 0.78</t>
+          <t>1.68 ± 0.48</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.02 ± 0.08</t>
+          <t>1.04 ± 0.08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>60.87 ± 6.13</t>
+          <t>61.80 ± 6.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.69 ± 0.04</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1.18 ± 0.16</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.66 ± 0.03</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>39.43 ± 1.86</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1798,42 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.25 ± 0.10</t>
+          <t>0.18 ± 0.20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.74 ± 0.84</t>
+          <t>1.69 ± 0.65</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.03 ± 0.08</t>
+          <t>1.05 ± 0.05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>61.36 ± 5.81</t>
+          <t>62.80 ± 4.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.12 ± 0.03</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.06 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>3.75 ± 0.54</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1850,42 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.15 ± 0.11</t>
+          <t>0.14 ± 0.16</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.80 ± 0.88</t>
+          <t>1.81 ± 0.71</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.09 ± 0.08</t>
+          <t>1.08 ± 0.07</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>64.97 ± 6.02</t>
+          <t>64.26 ± 5.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.60 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1.22 ± 0.15</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.68 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>40.56 ± 1.40</t>
         </is>
       </c>
     </row>
@@ -1342,22 +1902,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.29 ± 0.05</t>
+          <t>0.28 ± 0.16</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.65 ± 0.73</t>
+          <t>1.64 ± 0.57</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.00 ± 0.07</t>
+          <t>0.99 ± 0.05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>59.60 ± 5.21</t>
+          <t>59.07 ± 3.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.82 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.94 ± 0.09</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.51 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>30.26 ± 0.91</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1954,42 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.41 ± 0.17</t>
+          <t>0.39 ± 0.10</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.24 ± 0.43</t>
+          <t>1.16 ± 0.22</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.90 ± 0.12</t>
+          <t>0.92 ± 0.11</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>53.72 ± 6.91</t>
+          <t>54.89 ± 7.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.94 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.63 ± 0.06</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.30 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>17.68 ± 0.80</t>
         </is>
       </c>
     </row>
@@ -1406,22 +2006,42 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.38 ± 0.19</t>
+          <t>0.37 ± 0.11</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.12 ± 0.33</t>
+          <t>1.12 ± 0.24</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.93 ± 0.12</t>
+          <t>0.93 ± 0.10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>55.33 ± 6.86</t>
+          <t>55.36 ± 7.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.83 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.68 ± 0.08</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.50 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>29.48 ± 0.62</t>
         </is>
       </c>
     </row>
@@ -1438,22 +2058,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.35 ± 0.20</t>
+          <t>0.32 ± 0.11</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.15 ± 0.40</t>
+          <t>1.18 ± 0.26</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.95 ± 0.11</t>
+          <t>0.97 ± 0.13</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>56.42 ± 6.05</t>
+          <t>58.00 ± 9.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.43 ± 0.03</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1.09 ± 0.13</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.03</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>53.94 ± 0.83</t>
         </is>
       </c>
     </row>
@@ -1470,22 +2110,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.42 ± 0.12</t>
+          <t>0.37 ± 0.11</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.19 ± 0.44</t>
+          <t>1.28 ± 0.54</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.90 ± 0.09</t>
+          <t>0.94 ± 0.11</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>53.53 ± 5.05</t>
+          <t>55.78 ± 7.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.99 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.21 ± 0.04</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.13 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>8.02 ± 1.13</t>
         </is>
       </c>
     </row>
@@ -1502,22 +2162,42 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.41 ± 0.15</t>
+          <t>0.39 ± 0.07</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.14 ± 0.39</t>
+          <t>1.21 ± 0.31</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.91 ± 0.08</t>
+          <t>0.93 ± 0.12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>53.79 ± 4.12</t>
+          <t>55.21 ± 8.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.67 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.98 ± 0.09</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.69 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>40.94 ± 1.19</t>
         </is>
       </c>
     </row>
@@ -1534,22 +2214,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.01 ± 0.11</t>
+          <t>-0.09 ± 0.21</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.18 ± 1.21</t>
+          <t>2.30 ± 1.17</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.18 ± 0.10</t>
+          <t>1.22 ± 0.10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>70.26 ± 6.36</t>
+          <t>72.86 ± 7.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.11 ± 0.03</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2.17 ± 0.30</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1.13 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>67.22 ± 1.42</t>
         </is>
       </c>
     </row>
@@ -1566,22 +2266,42 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.39 ± 0.18</t>
+          <t>0.40 ± 0.08</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.17 ± 0.43</t>
+          <t>1.14 ± 0.49</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.92 ± 0.09</t>
+          <t>0.91 ± 0.09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>54.58 ± 4.81</t>
+          <t>54.30 ± 6.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.92 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.44 ± 0.03</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.33 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>19.68 ± 1.03</t>
         </is>
       </c>
     </row>
@@ -1598,22 +2318,42 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.01</t>
+          <t>-0.03 ± 0.03</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.25 ± 1.01</t>
+          <t>2.33 ± 0.96</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.21 ± 0.10</t>
+          <t>1.20 ± 0.15</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>71.90 ± 7.52</t>
+          <t>71.56 ± 9.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-0.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2.37 ± 0.27</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1.20 ± 0.04</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>71.50 ± 2.25</t>
         </is>
       </c>
     </row>
@@ -1630,22 +2370,42 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.42 ± 0.13</t>
+          <t>0.41 ± 0.08</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.21 ± 0.45</t>
+          <t>1.22 ± 0.26</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.90 ± 0.09</t>
+          <t>0.91 ± 0.08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>53.68 ± 5.52</t>
+          <t>53.94 ± 6.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.74 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.81 ± 0.07</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.62 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>36.75 ± 1.35</t>
         </is>
       </c>
     </row>
@@ -1662,22 +2422,42 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.13 ± 0.13</t>
+          <t>-0.01 ± 0.02</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.59 ± 0.99</t>
+          <t>2.32 ± 0.96</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.11 ± 0.11</t>
+          <t>1.19 ± 0.14</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>65.82 ± 7.22</t>
+          <t>70.99 ± 9.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.99 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.18 ± 0.01</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.10 ± 0.00</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>5.85 ± 0.16</t>
         </is>
       </c>
     </row>
@@ -1694,22 +2474,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.38 ± 0.13</t>
+          <t>0.39 ± 0.08</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.19 ± 0.37</t>
+          <t>1.16 ± 0.27</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.94 ± 0.11</t>
+          <t>0.92 ± 0.11</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>55.64 ± 6.64</t>
+          <t>54.97 ± 7.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.80 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.78 ± 0.08</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.54 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>32.28 ± 1.69</t>
         </is>
       </c>
     </row>
@@ -1726,22 +2526,42 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.36 ± 0.18</t>
+          <t>0.39 ± 0.11</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.11 ± 0.31</t>
+          <t>1.21 ± 0.35</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.94 ± 0.09</t>
+          <t>0.92 ± 0.12</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>55.71 ± 4.80</t>
+          <t>54.81 ± 8.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.97 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.34 ± 0.05</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.22 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>13.16 ± 1.50</t>
         </is>
       </c>
     </row>
@@ -1758,22 +2578,42 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.30 ± 0.14</t>
+          <t>0.27 ± 0.09</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.38 ± 0.56</t>
+          <t>1.47 ± 0.50</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.98 ± 0.10</t>
+          <t>1.00 ± 0.11</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>58.36 ± 5.99</t>
+          <t>59.39 ± 8.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.70 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.89 ± 0.10</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.56 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>33.04 ± 1.16</t>
         </is>
       </c>
     </row>
@@ -1790,22 +2630,42 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.43 ± 0.15</t>
+          <t>0.42 ± 0.08</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.19 ± 0.43</t>
+          <t>1.19 ± 0.37</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.89 ± 0.10</t>
+          <t>0.90 ± 0.10</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>52.94 ± 5.64</t>
+          <t>53.45 ± 7.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.51 ± 0.04</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.31 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>18.61 ± 0.72</t>
         </is>
       </c>
     </row>
@@ -1822,22 +2682,42 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.41 ± 0.16</t>
+          <t>0.37 ± 0.11</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.24 ± 0.45</t>
+          <t>1.20 ± 0.27</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.91 ± 0.10</t>
+          <t>0.93 ± 0.09</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>53.99 ± 5.55</t>
+          <t>55.44 ± 7.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.62 ± 0.04</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.31 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>18.63 ± 0.94</t>
         </is>
       </c>
     </row>
@@ -1854,22 +2734,42 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.38 ± 0.18</t>
+          <t>0.38 ± 0.10</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.17 ± 0.37</t>
+          <t>1.12 ± 0.24</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.93 ± 0.11</t>
+          <t>0.93 ± 0.09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>55.20 ± 6.58</t>
+          <t>55.28 ± 7.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.92 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.44 ± 0.05</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.34 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>20.47 ± 0.55</t>
         </is>
       </c>
     </row>
@@ -1886,22 +2786,42 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.35 ± 0.18</t>
+          <t>0.25 ± 0.18</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.13 ± 0.38</t>
+          <t>1.15 ± 0.30</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.95 ± 0.10</t>
+          <t>1.01 ± 0.13</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>56.32 ± 5.19</t>
+          <t>60.37 ± 8.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.45 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1.09 ± 0.16</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.89 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>52.79 ± 0.97</t>
         </is>
       </c>
     </row>
@@ -1918,22 +2838,42 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.44 ± 0.12</t>
+          <t>0.42 ± 0.08</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.20 ± 0.47</t>
+          <t>1.27 ± 0.40</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.88 ± 0.08</t>
+          <t>0.90 ± 0.08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>52.44 ± 4.76</t>
+          <t>53.40 ± 6.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.85 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.70 ± 0.09</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0.46 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>27.39 ± 1.32</t>
         </is>
       </c>
     </row>
@@ -1950,22 +2890,42 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.41 ± 0.16</t>
+          <t>0.40 ± 0.06</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.13 ± 0.41</t>
+          <t>1.13 ± 0.32</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.91 ± 0.08</t>
+          <t>0.92 ± 0.09</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>53.87 ± 3.92</t>
+          <t>54.60 ± 6.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.73 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.82 ± 0.13</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.62 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>37.08 ± 1.06</t>
         </is>
       </c>
     </row>
@@ -1982,22 +2942,42 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.06 ± 0.08</t>
+          <t>-0.08 ± 0.33</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.02 ± 1.19</t>
+          <t>2.12 ± 1.11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.15 ± 0.08</t>
+          <t>1.20 ± 0.07</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>68.53 ± 5.58</t>
+          <t>71.66 ± 6.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.30 ± 0.05</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1.63 ± 0.31</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1.00 ± 0.03</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>59.74 ± 1.36</t>
         </is>
       </c>
     </row>
@@ -2014,22 +2994,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.41 ± 0.17</t>
+          <t>0.41 ± 0.09</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.13 ± 0.40</t>
+          <t>1.21 ± 0.53</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.91 ± 0.09</t>
+          <t>0.90 ± 0.11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>53.81 ± 4.46</t>
+          <t>53.84 ± 8.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.86 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.61 ± 0.04</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.45 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>26.66 ± 1.48</t>
         </is>
       </c>
     </row>
@@ -2046,22 +3046,42 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.07</t>
+          <t>-0.03 ± 0.04</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.29 ± 1.08</t>
+          <t>2.25 ± 0.90</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.21 ± 0.11</t>
+          <t>1.20 ± 0.15</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>72.00 ± 7.88</t>
+          <t>71.70 ± 10.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-0.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2.29 ± 0.30</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1.20 ± 0.04</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>71.55 ± 2.25</t>
         </is>
       </c>
     </row>
@@ -2078,22 +3098,42 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.42 ± 0.12</t>
+          <t>0.41 ± 0.08</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.28 ± 0.49</t>
+          <t>1.28 ± 0.27</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.91 ± 0.09</t>
+          <t>0.90 ± 0.07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>53.84 ± 5.38</t>
+          <t>53.89 ± 5.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.75 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.82 ± 0.06</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.60 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>35.58 ± 1.34</t>
         </is>
       </c>
     </row>
@@ -2110,22 +3150,42 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.03 ± 0.11</t>
+          <t>-0.04 ± 0.20</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.86 ± 1.05</t>
+          <t>1.87 ± 0.97</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.17 ± 0.07</t>
+          <t>1.19 ± 0.08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>69.63 ± 4.86</t>
+          <t>71.04 ± 6.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.40 ± 0.04</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1.32 ± 0.23</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>55.09 ± 1.27</t>
         </is>
       </c>
     </row>
@@ -2142,22 +3202,42 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.38 ± 0.15</t>
+          <t>0.37 ± 0.08</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.21 ± 0.41</t>
+          <t>1.20 ± 0.29</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.93 ± 0.11</t>
+          <t>0.93 ± 0.10</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>55.53 ± 6.78</t>
+          <t>55.74 ± 7.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.80 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.77 ± 0.08</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0.54 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>31.90 ± 1.72</t>
         </is>
       </c>
     </row>
@@ -2174,22 +3254,42 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.36 ± 0.19</t>
+          <t>0.39 ± 0.13</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.20 ± 0.55</t>
+          <t>1.19 ± 0.34</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.94 ± 0.09</t>
+          <t>0.91 ± 0.11</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>55.88 ± 4.55</t>
+          <t>54.33 ± 7.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.97 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.33 ± 0.04</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.22 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>13.03 ± 1.25</t>
         </is>
       </c>
     </row>
@@ -2206,22 +3306,42 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.30 ± 0.14</t>
+          <t>0.27 ± 0.12</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.41 ± 0.60</t>
+          <t>1.42 ± 0.49</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.98 ± 0.09</t>
+          <t>0.99 ± 0.10</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>58.42 ± 5.46</t>
+          <t>59.27 ± 7.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.66 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.95 ± 0.13</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0.63 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>37.49 ± 1.29</t>
         </is>
       </c>
     </row>
@@ -2238,12 +3358,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.44 ± 0.14</t>
+          <t>0.42 ± 0.08</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.20 ± 0.45</t>
+          <t>1.23 ± 0.36</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2253,7 +3373,27 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>52.67 ± 5.00</t>
+          <t>53.28 ± 6.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.88 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0.68 ± 0.04</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0.42 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>25.24 ± 0.99</t>
         </is>
       </c>
     </row>

--- a/results/table_CSE.xlsx
+++ b/results/table_CSE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,47 +701,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>DeepCNN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.16 ± 0.11</t>
+          <t>0.28 ± 0.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.68 ± 0.56</t>
+          <t>1.76 ± 0.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.08 ± 0.07</t>
+          <t>0.99 ± 0.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64.14 ± 5.35</t>
+          <t>59.01 ± 5.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.98 ± 0.00</t>
+          <t>0.29 ± 0.15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.34 ± 0.03</t>
+          <t>1.55 ± 0.17</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.19 ± 0.01</t>
+          <t>1.01 ± 0.09</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11.03 ± 0.52</t>
+          <t>59.92 ± 6.52</t>
         </is>
       </c>
     </row>
@@ -753,47 +753,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.09 ± 0.21</t>
+          <t>0.16 ± 0.11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.31 ± 1.17</t>
+          <t>1.68 ± 0.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.22 ± 0.10</t>
+          <t>1.08 ± 0.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>72.91 ± 7.85</t>
+          <t>64.14 ± 5.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.11 ± 0.03</t>
+          <t>0.98 ± 0.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.18 ± 0.30</t>
+          <t>0.34 ± 0.03</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.13 ± 0.02</t>
+          <t>0.19 ± 0.01</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>67.30 ± 1.37</t>
+          <t>11.03 ± 0.52</t>
         </is>
       </c>
     </row>
@@ -805,47 +805,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.25 ± 0.19</t>
+          <t>-0.09 ± 0.21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.67 ± 0.65</t>
+          <t>2.31 ± 1.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.01 ± 0.05</t>
+          <t>1.22 ± 0.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60.12 ± 4.37</t>
+          <t>72.91 ± 7.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.77 ± 0.01</t>
+          <t>0.11 ± 0.03</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.93 ± 0.10</t>
+          <t>2.18 ± 0.30</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.57 ± 0.02</t>
+          <t>1.13 ± 0.02</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>34.01 ± 1.04</t>
+          <t>67.30 ± 1.37</t>
         </is>
       </c>
     </row>
@@ -857,47 +857,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.03</t>
+          <t>0.25 ± 0.19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.30 ± 1.00</t>
+          <t>1.67 ± 0.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.20 ± 0.14</t>
+          <t>1.01 ± 0.05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>71.67 ± 9.62</t>
+          <t>60.12 ± 4.37</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.00 ± 0.01</t>
+          <t>0.77 ± 0.01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.45 ± 0.28</t>
+          <t>0.93 ± 0.10</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.20 ± 0.04</t>
+          <t>0.57 ± 0.02</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>71.59 ± 2.43</t>
+          <t>34.01 ± 1.04</t>
         </is>
       </c>
     </row>
@@ -909,47 +909,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.25 ± 0.15</t>
+          <t>-0.03 ± 0.03</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.64 ± 0.44</t>
+          <t>2.30 ± 1.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.01 ± 0.05</t>
+          <t>1.20 ± 0.14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60.18 ± 4.06</t>
+          <t>71.67 ± 9.62</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.67 ± 0.02</t>
+          <t>-0.00 ± 0.01</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.06 ± 0.06</t>
+          <t>2.45 ± 0.28</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.69 ± 0.01</t>
+          <t>1.20 ± 0.04</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>40.84 ± 1.40</t>
+          <t>71.59 ± 2.43</t>
         </is>
       </c>
     </row>
@@ -961,47 +961,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.02 ± 0.02</t>
+          <t>0.25 ± 0.15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.32 ± 0.96</t>
+          <t>1.64 ± 0.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.20 ± 0.15</t>
+          <t>1.01 ± 0.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>71.32 ± 9.77</t>
+          <t>60.18 ± 4.06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.99 ± 0.00</t>
+          <t>0.67 ± 0.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.18 ± 0.01</t>
+          <t>1.06 ± 0.06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.10 ± 0.00</t>
+          <t>0.69 ± 0.01</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5.83 ± 0.16</t>
+          <t>40.84 ± 1.40</t>
         </is>
       </c>
     </row>
@@ -1013,47 +1013,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.20 ± 0.10</t>
+          <t>-0.02 ± 0.02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.71 ± 0.49</t>
+          <t>2.32 ± 0.96</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.05 ± 0.07</t>
+          <t>1.20 ± 0.15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>62.44 ± 5.45</t>
+          <t>71.32 ± 9.77</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.68 ± 0.05</t>
+          <t>0.99 ± 0.00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.21 ± 0.16</t>
+          <t>0.18 ± 0.01</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.67 ± 0.04</t>
+          <t>0.10 ± 0.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>39.98 ± 2.17</t>
+          <t>5.83 ± 0.16</t>
         </is>
       </c>
     </row>
@@ -1065,47 +1065,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.17 ± 0.21</t>
+          <t>0.20 ± 0.10</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.65 ± 0.46</t>
+          <t>1.71 ± 0.49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.06 ± 0.04</t>
+          <t>1.05 ± 0.07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>63.12 ± 3.39</t>
+          <t>62.44 ± 5.45</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.00 ± 0.00</t>
+          <t>0.68 ± 0.05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.05 ± 0.01</t>
+          <t>1.21 ± 0.16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.03 ± 0.00</t>
+          <t>0.67 ± 0.04</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1.84 ± 0.23</t>
+          <t>39.98 ± 2.17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.12 ± 0.13</t>
+          <t>0.17 ± 0.21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.87 ± 0.70</t>
+          <t>1.65 ± 0.46</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.09 ± 0.08</t>
+          <t>1.06 ± 0.04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>65.20 ± 6.13</t>
+          <t>63.12 ± 3.39</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.67 ± 0.01</t>
+          <t>1.00 ± 0.00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.03 ± 0.12</t>
+          <t>0.05 ± 0.01</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.56 ± 0.02</t>
+          <t>0.03 ± 0.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>33.13 ± 1.15</t>
+          <t>1.84 ± 0.23</t>
         </is>
       </c>
     </row>
@@ -1169,99 +1169,99 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>▸ Ensemble</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.26 ± 0.15</t>
+          <t>0.14 ± 0.13</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.62 ± 0.55</t>
+          <t>1.86 ± 0.70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.00 ± 0.05</t>
+          <t>1.09 ± 0.08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>59.75 ± 4.70</t>
+          <t>64.72 ± 6.06</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.88 ± 0.01</t>
+          <t>0.64 ± 0.02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.76 ± 0.06</t>
+          <t>1.07 ± 0.13</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.42 ± 0.01</t>
+          <t>0.59 ± 0.02</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>25.00 ± 0.67</t>
+          <t>35.19 ± 1.57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.24 ± 0.17</t>
+          <t>0.25 ± 0.13</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.51 ± 0.39</t>
+          <t>1.64 ± 0.49</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.02 ± 0.05</t>
+          <t>1.02 ± 0.06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>60.46 ± 4.42</t>
+          <t>60.46 ± 5.01</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.91 ± 0.01</t>
+          <t>0.86 ± 0.01</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.79 ± 0.09</t>
+          <t>0.83 ± 0.08</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.36 ± 0.02</t>
+          <t>0.45 ± 0.01</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21.12 ± 1.13</t>
+          <t>26.59 ± 0.80</t>
         </is>
       </c>
     </row>
@@ -1273,47 +1273,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.22 ± 0.19</t>
+          <t>0.24 ± 0.17</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.58 ± 0.43</t>
+          <t>1.51 ± 0.39</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.03 ± 0.06</t>
+          <t>1.02 ± 0.05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>61.09 ± 5.07</t>
+          <t>60.46 ± 4.42</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.89 ± 0.01</t>
+          <t>0.91 ± 0.01</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.66 ± 0.09</t>
+          <t>0.79 ± 0.09</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.40 ± 0.01</t>
+          <t>0.36 ± 0.02</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>23.84 ± 0.94</t>
+          <t>21.12 ± 1.13</t>
         </is>
       </c>
     </row>
@@ -1325,47 +1325,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.20</t>
+          <t>0.22 ± 0.19</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.06 ± 0.98</t>
+          <t>1.58 ± 0.43</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.19 ± 0.08</t>
+          <t>1.03 ± 0.06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>70.74 ± 5.37</t>
+          <t>61.09 ± 5.07</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.15 ± 0.04</t>
+          <t>0.89 ± 0.01</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2.06 ± 0.27</t>
+          <t>0.66 ± 0.09</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.11 ± 0.02</t>
+          <t>0.40 ± 0.01</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>66.02 ± 2.55</t>
+          <t>23.84 ± 0.94</t>
         </is>
       </c>
     </row>
@@ -1377,47 +1377,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.27 ± 0.17</t>
+          <t>-0.03 ± 0.20</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.78 ± 0.78</t>
+          <t>2.06 ± 0.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.00 ± 0.05</t>
+          <t>1.19 ± 0.08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>59.45 ± 4.01</t>
+          <t>70.74 ± 5.37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.77 ± 0.01</t>
+          <t>0.15 ± 0.04</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.04 ± 0.10</t>
+          <t>2.06 ± 0.27</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.58 ± 0.01</t>
+          <t>1.11 ± 0.02</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>34.22 ± 0.97</t>
+          <t>66.02 ± 2.55</t>
         </is>
       </c>
     </row>
@@ -1429,47 +1429,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.24 ± 0.10</t>
+          <t>0.27 ± 0.17</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.72 ± 0.57</t>
+          <t>1.78 ± 0.78</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.02 ± 0.08</t>
+          <t>1.00 ± 0.05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>61.00 ± 5.72</t>
+          <t>59.45 ± 4.01</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.75 ± 0.01</t>
+          <t>0.77 ± 0.01</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.15 ± 0.10</t>
+          <t>1.04 ± 0.10</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.60 ± 0.01</t>
+          <t>0.58 ± 0.01</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>35.88 ± 0.89</t>
+          <t>34.22 ± 0.97</t>
         </is>
       </c>
     </row>
@@ -1481,47 +1481,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>DeepCNN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-0.05 ± 0.28</t>
+          <t>0.26 ± 0.16</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.18 ± 1.17</t>
+          <t>1.77 ± 0.70</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.19 ± 0.07</t>
+          <t>1.00 ± 0.07</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>70.84 ± 5.99</t>
+          <t>59.60 ± 4.57</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.22 ± 0.04</t>
+          <t>0.32 ± 0.10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.98 ± 0.25</t>
+          <t>1.57 ± 0.22</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.06 ± 0.01</t>
+          <t>0.99 ± 0.08</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>63.23 ± 1.62</t>
+          <t>59.02 ± 4.55</t>
         </is>
       </c>
     </row>
@@ -1533,47 +1533,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.25 ± 0.16</t>
+          <t>0.24 ± 0.10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.69 ± 0.70</t>
+          <t>1.72 ± 0.57</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.01 ± 0.04</t>
+          <t>1.02 ± 0.08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>60.11 ± 3.73</t>
+          <t>61.00 ± 5.72</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.79 ± 0.02</t>
+          <t>0.75 ± 0.01</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.91 ± 0.11</t>
+          <t>1.15 ± 0.10</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.55 ± 0.02</t>
+          <t>0.60 ± 0.01</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>32.99 ± 1.36</t>
+          <t>35.88 ± 0.89</t>
         </is>
       </c>
     </row>
@@ -1585,47 +1585,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.03</t>
+          <t>-0.05 ± 0.28</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.37 ± 0.97</t>
+          <t>2.18 ± 1.17</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.20 ± 0.14</t>
+          <t>1.19 ± 0.07</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>71.64 ± 9.71</t>
+          <t>70.84 ± 5.99</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0.00 ± 0.00</t>
+          <t>0.22 ± 0.04</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2.40 ± 0.28</t>
+          <t>1.98 ± 0.25</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.20 ± 0.04</t>
+          <t>1.06 ± 0.01</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>71.48 ± 2.25</t>
+          <t>63.23 ± 1.62</t>
         </is>
       </c>
     </row>
@@ -1637,47 +1637,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.26 ± 0.16</t>
+          <t>0.25 ± 0.16</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.62 ± 0.40</t>
+          <t>1.69 ± 0.70</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.00 ± 0.05</t>
+          <t>1.01 ± 0.04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>59.67 ± 3.67</t>
+          <t>60.11 ± 3.73</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.70 ± 0.02</t>
+          <t>0.79 ± 0.02</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.03 ± 0.07</t>
+          <t>0.91 ± 0.11</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.66 ± 0.01</t>
+          <t>0.55 ± 0.02</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>39.12 ± 1.46</t>
+          <t>32.99 ± 1.36</t>
         </is>
       </c>
     </row>
@@ -1689,47 +1689,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.05 ± 0.20</t>
+          <t>-0.03 ± 0.03</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.90 ± 1.00</t>
+          <t>2.37 ± 0.97</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.20 ± 0.08</t>
+          <t>1.20 ± 0.14</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>71.53 ± 6.93</t>
+          <t>71.64 ± 9.71</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.39 ± 0.04</t>
+          <t>-0.00 ± 0.00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.36 ± 0.24</t>
+          <t>2.40 ± 0.28</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.94 ± 0.02</t>
+          <t>1.20 ± 0.04</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>55.65 ± 1.25</t>
+          <t>71.48 ± 2.25</t>
         </is>
       </c>
     </row>
@@ -1741,47 +1741,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.22 ± 0.08</t>
+          <t>0.26 ± 0.16</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.68 ± 0.48</t>
+          <t>1.62 ± 0.40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.04 ± 0.08</t>
+          <t>1.00 ± 0.05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>61.80 ± 6.14</t>
+          <t>59.67 ± 3.67</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.69 ± 0.04</t>
+          <t>0.70 ± 0.02</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.18 ± 0.16</t>
+          <t>1.03 ± 0.07</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.66 ± 0.03</t>
+          <t>0.66 ± 0.01</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>39.43 ± 1.86</t>
+          <t>39.12 ± 1.46</t>
         </is>
       </c>
     </row>
@@ -1793,47 +1793,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.18 ± 0.20</t>
+          <t>-0.05 ± 0.20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.69 ± 0.65</t>
+          <t>1.90 ± 1.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.05 ± 0.05</t>
+          <t>1.20 ± 0.08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>62.80 ± 4.94</t>
+          <t>71.53 ± 6.93</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.00 ± 0.00</t>
+          <t>0.39 ± 0.04</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.12 ± 0.03</t>
+          <t>1.36 ± 0.24</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.06 ± 0.01</t>
+          <t>0.94 ± 0.02</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3.75 ± 0.54</t>
+          <t>55.65 ± 1.25</t>
         </is>
       </c>
     </row>
@@ -1845,47 +1845,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.14 ± 0.16</t>
+          <t>0.22 ± 0.08</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.81 ± 0.71</t>
+          <t>1.68 ± 0.48</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.08 ± 0.07</t>
+          <t>1.04 ± 0.08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>64.26 ± 5.48</t>
+          <t>61.80 ± 6.14</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.60 ± 0.02</t>
+          <t>0.69 ± 0.04</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.22 ± 0.15</t>
+          <t>1.18 ± 0.16</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.68 ± 0.02</t>
+          <t>0.66 ± 0.03</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>40.56 ± 1.40</t>
+          <t>39.43 ± 1.86</t>
         </is>
       </c>
     </row>
@@ -1897,151 +1897,151 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>▸ Ensemble</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.28 ± 0.16</t>
+          <t>0.18 ± 0.20</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.64 ± 0.57</t>
+          <t>1.69 ± 0.65</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.99 ± 0.05</t>
+          <t>1.05 ± 0.05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>59.07 ± 3.89</t>
+          <t>62.80 ± 4.94</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.82 ± 0.01</t>
+          <t>1.00 ± 0.00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.94 ± 0.09</t>
+          <t>0.12 ± 0.03</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.51 ± 0.01</t>
+          <t>0.06 ± 0.01</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>30.26 ± 0.91</t>
+          <t>3.75 ± 0.54</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.39 ± 0.10</t>
+          <t>0.15 ± 0.16</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.16 ± 0.22</t>
+          <t>1.81 ± 0.71</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.92 ± 0.11</t>
+          <t>1.07 ± 0.07</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>54.89 ± 7.99</t>
+          <t>63.90 ± 5.41</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.94 ± 0.01</t>
+          <t>0.58 ± 0.03</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.63 ± 0.06</t>
+          <t>1.25 ± 0.15</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.30 ± 0.01</t>
+          <t>0.71 ± 0.02</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>17.68 ± 0.80</t>
+          <t>41.98 ± 1.64</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.37 ± 0.11</t>
+          <t>0.26 ± 0.14</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.12 ± 0.24</t>
+          <t>1.64 ± 0.50</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.93 ± 0.10</t>
+          <t>1.00 ± 0.05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>55.36 ± 7.22</t>
+          <t>59.79 ± 4.36</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.83 ± 0.01</t>
+          <t>0.80 ± 0.01</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.68 ± 0.08</t>
+          <t>1.01 ± 0.10</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.50 ± 0.01</t>
+          <t>0.54 ± 0.01</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>29.48 ± 0.62</t>
+          <t>32.01 ± 1.01</t>
         </is>
       </c>
     </row>
@@ -2053,47 +2053,47 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.32 ± 0.11</t>
+          <t>0.39 ± 0.10</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.18 ± 0.26</t>
+          <t>1.16 ± 0.22</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.97 ± 0.13</t>
+          <t>0.92 ± 0.11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>58.00 ± 9.32</t>
+          <t>54.89 ± 7.99</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.43 ± 0.03</t>
+          <t>0.94 ± 0.01</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.09 ± 0.13</t>
+          <t>0.63 ± 0.06</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.91 ± 0.03</t>
+          <t>0.30 ± 0.01</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>53.94 ± 0.83</t>
+          <t>17.68 ± 0.80</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2115,37 +2115,37 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.28 ± 0.54</t>
+          <t>1.12 ± 0.24</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.94 ± 0.11</t>
+          <t>0.93 ± 0.10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>55.78 ± 7.89</t>
+          <t>55.36 ± 7.22</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.99 ± 0.00</t>
+          <t>0.83 ± 0.01</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.21 ± 0.04</t>
+          <t>0.68 ± 0.08</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.13 ± 0.02</t>
+          <t>0.50 ± 0.01</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>8.02 ± 1.13</t>
+          <t>29.48 ± 0.62</t>
         </is>
       </c>
     </row>
@@ -2157,47 +2157,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.39 ± 0.07</t>
+          <t>0.32 ± 0.11</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.21 ± 0.31</t>
+          <t>1.18 ± 0.26</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.93 ± 0.12</t>
+          <t>0.97 ± 0.13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>55.21 ± 8.52</t>
+          <t>58.00 ± 9.32</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.67 ± 0.01</t>
+          <t>0.43 ± 0.03</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.98 ± 0.09</t>
+          <t>1.09 ± 0.13</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.69 ± 0.02</t>
+          <t>0.91 ± 0.03</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>40.94 ± 1.19</t>
+          <t>53.94 ± 0.83</t>
         </is>
       </c>
     </row>
@@ -2209,47 +2209,47 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-0.09 ± 0.21</t>
+          <t>0.37 ± 0.11</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.30 ± 1.17</t>
+          <t>1.28 ± 0.54</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.22 ± 0.10</t>
+          <t>0.94 ± 0.11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>72.86 ± 7.87</t>
+          <t>55.78 ± 7.89</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.11 ± 0.03</t>
+          <t>0.99 ± 0.00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2.17 ± 0.30</t>
+          <t>0.21 ± 0.04</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1.13 ± 0.02</t>
+          <t>0.13 ± 0.02</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>67.22 ± 1.42</t>
+          <t>8.02 ± 1.13</t>
         </is>
       </c>
     </row>
@@ -2261,47 +2261,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>DeepCNN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.40 ± 0.08</t>
+          <t>0.30 ± 0.11</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.14 ± 0.49</t>
+          <t>1.62 ± 0.72</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.91 ± 0.09</t>
+          <t>0.98 ± 0.09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>54.30 ± 6.83</t>
+          <t>57.99 ± 5.35</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.92 ± 0.00</t>
+          <t>0.46 ± 0.21</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.44 ± 0.03</t>
+          <t>1.52 ± 0.31</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.33 ± 0.01</t>
+          <t>0.87 ± 0.15</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>19.68 ± 1.03</t>
+          <t>51.61 ± 9.79</t>
         </is>
       </c>
     </row>
@@ -2313,47 +2313,47 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.03</t>
+          <t>0.39 ± 0.07</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.33 ± 0.96</t>
+          <t>1.21 ± 0.31</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.20 ± 0.15</t>
+          <t>0.93 ± 0.12</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>71.56 ± 9.84</t>
+          <t>55.21 ± 8.52</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-0.00 ± 0.00</t>
+          <t>0.67 ± 0.01</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2.37 ± 0.27</t>
+          <t>0.98 ± 0.09</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1.20 ± 0.04</t>
+          <t>0.69 ± 0.02</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>71.50 ± 2.25</t>
+          <t>40.94 ± 1.19</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.41 ± 0.08</t>
+          <t>-0.09 ± 0.21</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.22 ± 0.26</t>
+          <t>2.30 ± 1.17</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.91 ± 0.08</t>
+          <t>1.22 ± 0.10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>53.94 ± 6.29</t>
+          <t>72.86 ± 7.87</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.74 ± 0.01</t>
+          <t>0.11 ± 0.03</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.81 ± 0.07</t>
+          <t>2.17 ± 0.30</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.62 ± 0.02</t>
+          <t>1.13 ± 0.02</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>36.75 ± 1.35</t>
+          <t>67.22 ± 1.42</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-0.01 ± 0.02</t>
+          <t>0.40 ± 0.08</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.32 ± 0.96</t>
+          <t>1.14 ± 0.49</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.19 ± 0.14</t>
+          <t>0.91 ± 0.09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>70.99 ± 9.68</t>
+          <t>54.30 ± 6.83</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.99 ± 0.00</t>
+          <t>0.92 ± 0.00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.18 ± 0.01</t>
+          <t>0.44 ± 0.03</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.10 ± 0.00</t>
+          <t>0.33 ± 0.01</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>5.85 ± 0.16</t>
+          <t>19.68 ± 1.03</t>
         </is>
       </c>
     </row>
@@ -2469,47 +2469,47 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.39 ± 0.08</t>
+          <t>-0.03 ± 0.03</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.16 ± 0.27</t>
+          <t>2.33 ± 0.96</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.92 ± 0.11</t>
+          <t>1.20 ± 0.15</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>54.97 ± 7.88</t>
+          <t>71.56 ± 9.84</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.80 ± 0.02</t>
+          <t>-0.00 ± 0.00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.78 ± 0.08</t>
+          <t>2.37 ± 0.27</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.54 ± 0.02</t>
+          <t>1.20 ± 0.04</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>32.28 ± 1.69</t>
+          <t>71.50 ± 2.25</t>
         </is>
       </c>
     </row>
@@ -2521,47 +2521,47 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.39 ± 0.11</t>
+          <t>0.41 ± 0.08</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.21 ± 0.35</t>
+          <t>1.22 ± 0.26</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.92 ± 0.12</t>
+          <t>0.91 ± 0.08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>54.81 ± 8.00</t>
+          <t>53.94 ± 6.29</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.97 ± 0.01</t>
+          <t>0.74 ± 0.01</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.34 ± 0.05</t>
+          <t>0.81 ± 0.07</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.22 ± 0.02</t>
+          <t>0.62 ± 0.02</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>13.16 ± 1.50</t>
+          <t>36.75 ± 1.35</t>
         </is>
       </c>
     </row>
@@ -2573,47 +2573,47 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.27 ± 0.09</t>
+          <t>-0.01 ± 0.02</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.47 ± 0.50</t>
+          <t>2.32 ± 0.96</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.00 ± 0.11</t>
+          <t>1.19 ± 0.14</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>59.39 ± 8.11</t>
+          <t>70.99 ± 9.68</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.70 ± 0.01</t>
+          <t>0.99 ± 0.00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.89 ± 0.10</t>
+          <t>0.18 ± 0.01</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.56 ± 0.02</t>
+          <t>0.10 ± 0.00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>33.04 ± 1.16</t>
+          <t>5.85 ± 0.16</t>
         </is>
       </c>
     </row>
@@ -2625,203 +2625,203 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>▸ Ensemble</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.42 ± 0.08</t>
+          <t>0.39 ± 0.08</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.19 ± 0.37</t>
+          <t>1.16 ± 0.27</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.90 ± 0.10</t>
+          <t>0.92 ± 0.11</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>53.45 ± 7.29</t>
+          <t>54.97 ± 7.88</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.93 ± 0.00</t>
+          <t>0.80 ± 0.02</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.51 ± 0.04</t>
+          <t>0.78 ± 0.08</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.31 ± 0.01</t>
+          <t>0.54 ± 0.02</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>18.61 ± 0.72</t>
+          <t>32.28 ± 1.69</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.37 ± 0.11</t>
+          <t>0.39 ± 0.11</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.20 ± 0.27</t>
+          <t>1.21 ± 0.35</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.93 ± 0.09</t>
+          <t>0.92 ± 0.12</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>55.44 ± 7.11</t>
+          <t>54.81 ± 8.00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.93 ± 0.01</t>
+          <t>0.97 ± 0.01</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.62 ± 0.04</t>
+          <t>0.34 ± 0.05</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.31 ± 0.02</t>
+          <t>0.22 ± 0.02</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>18.63 ± 0.94</t>
+          <t>13.16 ± 1.50</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.38 ± 0.10</t>
+          <t>0.28 ± 0.09</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.12 ± 0.24</t>
+          <t>1.48 ± 0.52</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.93 ± 0.09</t>
+          <t>1.00 ± 0.11</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>55.28 ± 7.00</t>
+          <t>59.28 ± 7.90</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.92 ± 0.00</t>
+          <t>0.68 ± 0.03</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.44 ± 0.05</t>
+          <t>0.94 ± 0.12</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.34 ± 0.01</t>
+          <t>0.58 ± 0.03</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>20.47 ± 0.55</t>
+          <t>34.47 ± 1.83</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.25 ± 0.18</t>
+          <t>0.41 ± 0.08</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.15 ± 0.30</t>
+          <t>1.20 ± 0.31</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.01 ± 0.13</t>
+          <t>0.90 ± 0.10</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>60.37 ± 8.49</t>
+          <t>53.85 ± 7.59</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.45 ± 0.02</t>
+          <t>0.90 ± 0.01</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1.09 ± 0.16</t>
+          <t>0.60 ± 0.05</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.89 ± 0.02</t>
+          <t>0.37 ± 0.01</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>52.79 ± 0.97</t>
+          <t>22.07 ± 0.85</t>
         </is>
       </c>
     </row>
@@ -2833,47 +2833,47 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.42 ± 0.08</t>
+          <t>0.37 ± 0.11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.27 ± 0.40</t>
+          <t>1.20 ± 0.27</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.90 ± 0.08</t>
+          <t>0.93 ± 0.09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>53.40 ± 6.14</t>
+          <t>55.44 ± 7.11</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.85 ± 0.01</t>
+          <t>0.93 ± 0.01</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.70 ± 0.09</t>
+          <t>0.62 ± 0.04</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.46 ± 0.02</t>
+          <t>0.31 ± 0.02</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>27.39 ± 1.32</t>
+          <t>18.63 ± 0.94</t>
         </is>
       </c>
     </row>
@@ -2885,47 +2885,47 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.40 ± 0.06</t>
+          <t>0.38 ± 0.10</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.13 ± 0.32</t>
+          <t>1.12 ± 0.24</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.92 ± 0.09</t>
+          <t>0.93 ± 0.09</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>54.60 ± 6.44</t>
+          <t>55.28 ± 7.00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.73 ± 0.01</t>
+          <t>0.92 ± 0.00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.82 ± 0.13</t>
+          <t>0.44 ± 0.05</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.62 ± 0.01</t>
+          <t>0.34 ± 0.01</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>37.08 ± 1.06</t>
+          <t>20.47 ± 0.55</t>
         </is>
       </c>
     </row>
@@ -2937,47 +2937,47 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-0.08 ± 0.33</t>
+          <t>0.25 ± 0.18</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.12 ± 1.11</t>
+          <t>1.15 ± 0.30</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.20 ± 0.07</t>
+          <t>1.01 ± 0.13</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>71.66 ± 6.07</t>
+          <t>60.37 ± 8.49</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.30 ± 0.05</t>
+          <t>0.45 ± 0.02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1.63 ± 0.31</t>
+          <t>1.09 ± 0.16</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1.00 ± 0.03</t>
+          <t>0.89 ± 0.02</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>59.74 ± 1.36</t>
+          <t>52.79 ± 0.97</t>
         </is>
       </c>
     </row>
@@ -2989,47 +2989,47 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.41 ± 0.09</t>
+          <t>0.42 ± 0.08</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.21 ± 0.53</t>
+          <t>1.27 ± 0.40</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.90 ± 0.11</t>
+          <t>0.90 ± 0.08</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>53.84 ± 8.05</t>
+          <t>53.40 ± 6.14</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.86 ± 0.01</t>
+          <t>0.85 ± 0.01</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.61 ± 0.04</t>
+          <t>0.70 ± 0.09</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.45 ± 0.02</t>
+          <t>0.46 ± 0.02</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>26.66 ± 1.48</t>
+          <t>27.39 ± 1.32</t>
         </is>
       </c>
     </row>
@@ -3041,47 +3041,47 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>DeepCNN</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-0.03 ± 0.04</t>
+          <t>0.29 ± 0.11</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.25 ± 0.90</t>
+          <t>1.44 ± 0.28</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.20 ± 0.15</t>
+          <t>0.99 ± 0.09</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>71.70 ± 10.35</t>
+          <t>58.99 ± 5.98</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-0.00 ± 0.00</t>
+          <t>0.42 ± 0.09</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2.29 ± 0.30</t>
+          <t>1.49 ± 0.34</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1.20 ± 0.04</t>
+          <t>0.92 ± 0.09</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>71.55 ± 2.25</t>
+          <t>54.51 ± 5.36</t>
         </is>
       </c>
     </row>
@@ -3093,47 +3093,47 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.41 ± 0.08</t>
+          <t>0.40 ± 0.06</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.28 ± 0.27</t>
+          <t>1.13 ± 0.32</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.90 ± 0.07</t>
+          <t>0.92 ± 0.09</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>53.89 ± 5.57</t>
+          <t>54.60 ± 6.44</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.75 ± 0.01</t>
+          <t>0.73 ± 0.01</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.82 ± 0.06</t>
+          <t>0.82 ± 0.13</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.60 ± 0.02</t>
+          <t>0.62 ± 0.01</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>35.58 ± 1.34</t>
+          <t>37.08 ± 1.06</t>
         </is>
       </c>
     </row>
@@ -3145,47 +3145,47 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-0.04 ± 0.20</t>
+          <t>-0.08 ± 0.33</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.87 ± 0.97</t>
+          <t>2.12 ± 1.11</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.19 ± 0.08</t>
+          <t>1.20 ± 0.07</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>71.04 ± 6.95</t>
+          <t>71.66 ± 6.07</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.40 ± 0.04</t>
+          <t>0.30 ± 0.05</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.32 ± 0.23</t>
+          <t>1.63 ± 0.31</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.93 ± 0.02</t>
+          <t>1.00 ± 0.03</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>55.09 ± 1.27</t>
+          <t>59.74 ± 1.36</t>
         </is>
       </c>
     </row>
@@ -3197,47 +3197,47 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.37 ± 0.08</t>
+          <t>0.41 ± 0.09</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.20 ± 0.29</t>
+          <t>1.21 ± 0.53</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.93 ± 0.10</t>
+          <t>0.90 ± 0.11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>55.74 ± 7.44</t>
+          <t>53.84 ± 8.05</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.80 ± 0.02</t>
+          <t>0.86 ± 0.01</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.77 ± 0.08</t>
+          <t>0.61 ± 0.04</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.54 ± 0.02</t>
+          <t>0.45 ± 0.02</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>31.90 ± 1.72</t>
+          <t>26.66 ± 1.48</t>
         </is>
       </c>
     </row>
@@ -3249,47 +3249,47 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.39 ± 0.13</t>
+          <t>-0.03 ± 0.04</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.19 ± 0.34</t>
+          <t>2.25 ± 0.90</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.91 ± 0.11</t>
+          <t>1.20 ± 0.15</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>54.33 ± 7.38</t>
+          <t>71.70 ± 10.35</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.97 ± 0.01</t>
+          <t>-0.00 ± 0.00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.33 ± 0.04</t>
+          <t>2.29 ± 0.30</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.22 ± 0.02</t>
+          <t>1.20 ± 0.04</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>13.03 ± 1.25</t>
+          <t>71.55 ± 2.25</t>
         </is>
       </c>
     </row>
@@ -3301,47 +3301,47 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.27 ± 0.12</t>
+          <t>0.41 ± 0.08</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.42 ± 0.49</t>
+          <t>1.28 ± 0.27</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.99 ± 0.10</t>
+          <t>0.90 ± 0.07</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>59.27 ± 7.25</t>
+          <t>53.89 ± 5.57</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.66 ± 0.02</t>
+          <t>0.75 ± 0.01</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.95 ± 0.13</t>
+          <t>0.82 ± 0.06</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.63 ± 0.02</t>
+          <t>0.60 ± 0.02</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>37.49 ± 1.29</t>
+          <t>35.58 ± 1.34</t>
         </is>
       </c>
     </row>
@@ -3353,47 +3353,255 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-0.04 ± 0.20</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.87 ± 0.97</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1.19 ± 0.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>71.04 ± 6.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.40 ± 0.04</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1.32 ± 0.23</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>55.09 ± 1.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>StackEns</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.37 ± 0.08</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.20 ± 0.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>55.74 ± 7.44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.80 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0.77 ± 0.08</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0.54 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>31.90 ± 1.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.39 ± 0.13</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.19 ± 0.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.11</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>54.33 ± 7.38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.97 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0.33 ± 0.04</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0.22 ± 0.02</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>13.03 ± 1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>▸ Average</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.27 ± 0.12</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.42 ± 0.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.99 ± 0.10</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>59.25 ± 7.15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.65 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0.99 ± 0.14</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0.65 ± 0.03</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>38.80 ± 1.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>▸ Ensemble</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>0.42 ± 0.08</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1.23 ± 0.36</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0.89 ± 0.09</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>53.28 ± 6.76</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.88 ± 0.01</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>0.68 ± 0.04</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0.42 ± 0.02</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>25.24 ± 0.99</t>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.41 ± 0.08</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.23 ± 0.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.90 ± 0.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>53.93 ± 6.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.86 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0.72 ± 0.05</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0.45 ± 0.01</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>26.83 ± 1.03</t>
         </is>
       </c>
     </row>
